--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il13ra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.276646</v>
       </c>
       <c r="I2">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J2">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N2">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O2">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P2">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q2">
-        <v>9.487139419800002</v>
+        <v>3.587630021801778</v>
       </c>
       <c r="R2">
-        <v>85.3842547782</v>
+        <v>32.288670196216</v>
       </c>
       <c r="S2">
-        <v>0.219690897281406</v>
+        <v>0.122917702211367</v>
       </c>
       <c r="T2">
-        <v>0.219690897281406</v>
+        <v>0.122917702211367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.276646</v>
       </c>
       <c r="I3">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J3">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O3">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P3">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q3">
         <v>9.708075209161777</v>
@@ -635,10 +635,10 @@
         <v>87.37267688245599</v>
       </c>
       <c r="S3">
-        <v>0.224807042376224</v>
+        <v>0.3326135332667348</v>
       </c>
       <c r="T3">
-        <v>0.224807042376224</v>
+        <v>0.3326135332667348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>1.276646</v>
       </c>
       <c r="I4">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J4">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N4">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O4">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P4">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q4">
-        <v>2.221095660640889</v>
+        <v>2.181096639266222</v>
       </c>
       <c r="R4">
-        <v>19.989860945768</v>
+        <v>19.629869753396</v>
       </c>
       <c r="S4">
-        <v>0.05143325896693956</v>
+        <v>0.07472771316170895</v>
       </c>
       <c r="T4">
-        <v>0.05143325896693956</v>
+        <v>0.07472771316170895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>1.276646</v>
       </c>
       <c r="I5">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J5">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N5">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O5">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P5">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q5">
-        <v>8.146698993631333</v>
+        <v>5.24451056424711</v>
       </c>
       <c r="R5">
-        <v>73.32029094268199</v>
+        <v>47.200595078224</v>
       </c>
       <c r="S5">
-        <v>0.1886507125695982</v>
+        <v>0.1796849685901397</v>
       </c>
       <c r="T5">
-        <v>0.1886507125695982</v>
+        <v>0.1796849685901397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>0.521589</v>
       </c>
       <c r="I6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N6">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O6">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P6">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q6">
-        <v>3.8760843357</v>
+        <v>1.465769175982667</v>
       </c>
       <c r="R6">
-        <v>34.88475902130001</v>
+        <v>13.191922583844</v>
       </c>
       <c r="S6">
-        <v>0.089757344966507</v>
+        <v>0.05021949810575893</v>
       </c>
       <c r="T6">
-        <v>0.08975734496650699</v>
+        <v>0.05021949810575892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,10 +853,10 @@
         <v>0.521589</v>
       </c>
       <c r="I7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O7">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P7">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q7">
         <v>3.966350296222666</v>
@@ -883,10 +883,10 @@
         <v>35.69715266600399</v>
       </c>
       <c r="S7">
-        <v>0.0918476072662056</v>
+        <v>0.1358932391618843</v>
       </c>
       <c r="T7">
-        <v>0.09184760726620558</v>
+        <v>0.1358932391618843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>0.521589</v>
       </c>
       <c r="I8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N8">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O8">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P8">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q8">
-        <v>0.9074552104013334</v>
+        <v>0.8911131315793333</v>
       </c>
       <c r="R8">
-        <v>8.167096893612001</v>
+        <v>8.020018184213999</v>
       </c>
       <c r="S8">
-        <v>0.02101367341558039</v>
+        <v>0.03053090142475096</v>
       </c>
       <c r="T8">
-        <v>0.02101367341558039</v>
+        <v>0.03053090142475096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>0.521589</v>
       </c>
       <c r="I9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N9">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O9">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P9">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q9">
-        <v>3.328431359507</v>
+        <v>2.142707548290666</v>
       </c>
       <c r="R9">
-        <v>29.955882235563</v>
+        <v>19.284367934616</v>
       </c>
       <c r="S9">
-        <v>0.07707550606704144</v>
+        <v>0.07341244407765536</v>
       </c>
       <c r="T9">
-        <v>0.07707550606704143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.06662</v>
-      </c>
-      <c r="I10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>22.2939</v>
-      </c>
-      <c r="N10">
-        <v>66.88170000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.3209125068732573</v>
-      </c>
-      <c r="P10">
-        <v>0.3209125068732573</v>
-      </c>
-      <c r="Q10">
-        <v>0.4950732060000001</v>
-      </c>
-      <c r="R10">
-        <v>4.455658854</v>
-      </c>
-      <c r="S10">
-        <v>0.01146426462534428</v>
-      </c>
-      <c r="T10">
-        <v>0.01146426462534428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.06662</v>
-      </c>
-      <c r="I11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.81307866666667</v>
-      </c>
-      <c r="N11">
-        <v>68.43923599999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3283858932002398</v>
-      </c>
-      <c r="P11">
-        <v>0.3283858932002397</v>
-      </c>
-      <c r="Q11">
-        <v>0.5066024335911111</v>
-      </c>
-      <c r="R11">
-        <v>4.55942190232</v>
-      </c>
-      <c r="S11">
-        <v>0.01173124355781011</v>
-      </c>
-      <c r="T11">
-        <v>0.01173124355781011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.06662</v>
-      </c>
-      <c r="I12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.219369333333334</v>
-      </c>
-      <c r="N12">
-        <v>15.658108</v>
-      </c>
-      <c r="O12">
-        <v>0.07513090563146878</v>
-      </c>
-      <c r="P12">
-        <v>0.07513090563146876</v>
-      </c>
-      <c r="Q12">
-        <v>0.1159047949955556</v>
-      </c>
-      <c r="R12">
-        <v>1.04314315496</v>
-      </c>
-      <c r="S12">
-        <v>0.002683973248948819</v>
-      </c>
-      <c r="T12">
-        <v>0.002683973248948819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.06662</v>
-      </c>
-      <c r="I13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.143989</v>
-      </c>
-      <c r="N13">
-        <v>57.431967</v>
-      </c>
-      <c r="O13">
-        <v>0.2755706942950342</v>
-      </c>
-      <c r="P13">
-        <v>0.2755706942950341</v>
-      </c>
-      <c r="Q13">
-        <v>0.4251241823933333</v>
-      </c>
-      <c r="R13">
-        <v>3.82611764154</v>
-      </c>
-      <c r="S13">
-        <v>0.009844475658394447</v>
-      </c>
-      <c r="T13">
-        <v>0.009844475658394445</v>
+        <v>0.07341244407765536</v>
       </c>
     </row>
   </sheetData>
